--- a/Client/BACKEND/data.xlsx
+++ b/Client/BACKEND/data.xlsx
@@ -1418,10 +1418,10 @@
         </is>
       </c>
       <c s="4" r="C70">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c s="5" r="D70">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="1" collapsed="1" r="71" ht="17" customHeight="0">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c s="4" r="C71">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c s="5" r="D71">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="2" collapsed="1" r="72" ht="17" customHeight="0">
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c s="8" r="C72">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c s="5" r="D72">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="2" collapsed="1" r="73" ht="17" customHeight="0">
@@ -1460,10 +1460,10 @@
         </is>
       </c>
       <c s="8" r="C73">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c s="5" r="D73">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" ht="17.05" customHeight="0">
@@ -1478,10 +1478,10 @@
         </is>
       </c>
       <c s="4" r="C74">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c s="5" r="D74">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="1" collapsed="1" r="75" ht="17" customHeight="0">
@@ -1492,10 +1492,10 @@
         </is>
       </c>
       <c s="4" r="C75">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c s="5" r="D75">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="2" collapsed="1" r="76" ht="17" customHeight="0">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c s="8" r="C76">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c s="5" r="D76">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="2" collapsed="1" r="77" ht="17" customHeight="0">
@@ -1833,10 +1833,10 @@
         </is>
       </c>
       <c s="11" r="C98">
-        <v>495</v>
+        <v>543</v>
       </c>
       <c s="11" r="D98">
-        <v>422</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>

--- a/Client/BACKEND/data.xlsx
+++ b/Client/BACKEND/data.xlsx
@@ -367,7 +367,7 @@
     <row r="1" ht="40.4" customHeight="0">
       <c s="1" t="inlineStr" r="A1">
         <is>
-          <t xml:space="preserve">giovedì 11 aprile 2019</t>
+          <t xml:space="preserve">lunedì 15 aprile 2019</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B1">
@@ -818,10 +818,10 @@
         </is>
       </c>
       <c s="4" r="C30">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c s="5" r="D30">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="1" collapsed="1" r="31" ht="17" customHeight="0">
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c s="4" r="C31">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c s="5" r="D31">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="2" collapsed="1" r="32" ht="17" customHeight="0">
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c s="8" r="C32">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c s="5" r="D32">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="2" collapsed="1" r="33" ht="17" customHeight="0">
@@ -860,10 +860,10 @@
         </is>
       </c>
       <c s="8" r="C33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c s="5" r="D33">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" ht="17" customHeight="0">
@@ -878,10 +878,10 @@
         </is>
       </c>
       <c s="4" r="C34">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="5" r="D34">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="1" collapsed="1" r="35" ht="17" customHeight="0">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c s="4" r="C35">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="5" r="D35">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="2" collapsed="1" r="36" ht="17.05" customHeight="0">
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c s="8" r="C36">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c s="5" r="D36">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="2" collapsed="1" r="37" ht="17" customHeight="0">
@@ -920,10 +920,10 @@
         </is>
       </c>
       <c s="8" r="C37">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c s="5" r="D37">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="17" customHeight="0">
@@ -938,10 +938,10 @@
         </is>
       </c>
       <c s="4" r="C38">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c s="5" r="D38">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="1" collapsed="1" r="39" ht="17" customHeight="0">
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c s="4" r="C39">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c s="5" r="D39">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="2" collapsed="1" r="40" ht="17" customHeight="0">
@@ -966,10 +966,10 @@
         </is>
       </c>
       <c s="8" r="C40">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c s="5" r="D40">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="2" collapsed="1" r="41" ht="17" customHeight="0">
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c s="8" r="C41">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c s="5" r="D41">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" ht="17.05" customHeight="0">
@@ -998,10 +998,10 @@
         </is>
       </c>
       <c s="4" r="C42">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c s="5" r="D42">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="1" collapsed="1" r="43" ht="17" customHeight="0">
@@ -1012,10 +1012,10 @@
         </is>
       </c>
       <c s="4" r="C43">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c s="5" r="D43">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="2" collapsed="1" r="44" ht="17" customHeight="0">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c s="8" r="C44">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c s="5" r="D44">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="2" collapsed="1" r="45" ht="17" customHeight="0">
@@ -1040,10 +1040,10 @@
         </is>
       </c>
       <c s="8" r="C45">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c s="5" r="D45">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" ht="17" customHeight="0">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c s="4" r="C46">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c s="5" r="D46">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="1" collapsed="1" r="47" ht="17" customHeight="0">
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c s="4" r="C47">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c s="5" r="D47">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="2" collapsed="1" r="48" ht="17.05" customHeight="0">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c s="8" r="C48">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c s="5" r="D48">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="2" collapsed="1" r="49" ht="17" customHeight="0">
@@ -1100,10 +1100,10 @@
         </is>
       </c>
       <c s="8" r="C49">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c s="5" r="D49">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" ht="17" customHeight="0">
@@ -1118,10 +1118,10 @@
         </is>
       </c>
       <c s="4" r="C50">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c s="5" r="D50">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="1" collapsed="1" r="51" ht="17" customHeight="0">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c s="4" r="C51">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c s="5" r="D51">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="2" collapsed="1" r="52" ht="17" customHeight="0">
@@ -1146,10 +1146,10 @@
         </is>
       </c>
       <c s="8" r="C52">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c s="5" r="D52">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="2" collapsed="1" r="53" ht="17" customHeight="0">
@@ -1160,10 +1160,10 @@
         </is>
       </c>
       <c s="8" r="C53">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c s="5" r="D53">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" ht="17" customHeight="0">
@@ -1178,10 +1178,10 @@
         </is>
       </c>
       <c s="4" r="C54">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c s="5" r="D54">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="1" collapsed="1" r="55" ht="17.05" customHeight="0">
@@ -1192,10 +1192,10 @@
         </is>
       </c>
       <c s="4" r="C55">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c s="5" r="D55">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="2" collapsed="1" r="56" ht="17" customHeight="0">
@@ -1206,10 +1206,10 @@
         </is>
       </c>
       <c s="8" r="C56">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c s="5" r="D56">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="2" collapsed="1" r="57" ht="17" customHeight="0">
@@ -1220,10 +1220,10 @@
         </is>
       </c>
       <c s="8" r="C57">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c s="5" r="D57">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" ht="17" customHeight="0">
@@ -1238,10 +1238,10 @@
         </is>
       </c>
       <c s="4" r="C58">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c s="5" r="D58">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="1" collapsed="1" r="59" ht="17" customHeight="0">
@@ -1252,10 +1252,10 @@
         </is>
       </c>
       <c s="4" r="C59">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c s="5" r="D59">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="2" collapsed="1" r="60" ht="17" customHeight="0">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c s="8" r="C60">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c s="5" r="D60">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="2" collapsed="1" r="61" ht="17.05" customHeight="0">
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c s="8" r="C61">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c s="5" r="D61">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" ht="17" customHeight="0">
@@ -1298,10 +1298,10 @@
         </is>
       </c>
       <c s="4" r="C62">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c s="5" r="D62">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="1" collapsed="1" r="63" ht="17" customHeight="0">
@@ -1312,10 +1312,10 @@
         </is>
       </c>
       <c s="4" r="C63">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c s="5" r="D63">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="2" collapsed="1" r="64" ht="17" customHeight="0">
@@ -1326,10 +1326,10 @@
         </is>
       </c>
       <c s="8" r="C64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c s="5" r="D64">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="2" collapsed="1" r="65" ht="17" customHeight="0">
@@ -1340,10 +1340,10 @@
         </is>
       </c>
       <c s="8" r="C65">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c s="5" r="D65">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" ht="17" customHeight="0">
@@ -1358,10 +1358,10 @@
         </is>
       </c>
       <c s="4" r="C66">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c s="5" r="D66">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="1" collapsed="1" r="67" ht="17.05" customHeight="0">
@@ -1372,10 +1372,10 @@
         </is>
       </c>
       <c s="4" r="C67">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c s="5" r="D67">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="2" collapsed="1" r="68" ht="17" customHeight="0">
@@ -1386,10 +1386,10 @@
         </is>
       </c>
       <c s="8" r="C68">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c s="5" r="D68">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="2" collapsed="1" r="69" ht="17" customHeight="0">
@@ -1400,10 +1400,10 @@
         </is>
       </c>
       <c s="8" r="C69">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c s="5" r="D69">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="17" customHeight="0">
@@ -1418,10 +1418,10 @@
         </is>
       </c>
       <c s="4" r="C70">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c s="5" r="D70">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="1" collapsed="1" r="71" ht="17" customHeight="0">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c s="4" r="C71">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c s="5" r="D71">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="2" collapsed="1" r="72" ht="17" customHeight="0">
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c s="8" r="C72">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c s="5" r="D72">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="2" collapsed="1" r="73" ht="17" customHeight="0">
@@ -1460,10 +1460,10 @@
         </is>
       </c>
       <c s="8" r="C73">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c s="5" r="D73">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" ht="17.05" customHeight="0">
@@ -1478,10 +1478,10 @@
         </is>
       </c>
       <c s="4" r="C74">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c s="5" r="D74">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="1" collapsed="1" r="75" ht="17" customHeight="0">
@@ -1492,10 +1492,10 @@
         </is>
       </c>
       <c s="4" r="C75">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c s="5" r="D75">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="2" collapsed="1" r="76" ht="17" customHeight="0">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c s="8" r="C76">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c s="5" r="D76">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="2" collapsed="1" r="77" ht="17" customHeight="0">
@@ -1833,10 +1833,10 @@
         </is>
       </c>
       <c s="11" r="C98">
-        <v>543</v>
+        <v>89</v>
       </c>
       <c s="11" r="D98">
-        <v>482</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Client/BACKEND/data.xlsx
+++ b/Client/BACKEND/data.xlsx
@@ -367,7 +367,7 @@
     <row r="1" ht="40.4" customHeight="0">
       <c s="1" t="inlineStr" r="A1">
         <is>
-          <t xml:space="preserve">lunedì 15 aprile 2019</t>
+          <t xml:space="preserve">mercoledì 17 aprile 2019</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B1">
@@ -878,10 +878,10 @@
         </is>
       </c>
       <c s="4" r="C34">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c s="5" r="D34">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="1" collapsed="1" r="35" ht="17" customHeight="0">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c s="4" r="C35">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c s="5" r="D35">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="2" collapsed="1" r="36" ht="17.05" customHeight="0">
@@ -920,10 +920,10 @@
         </is>
       </c>
       <c s="8" r="C37">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c s="5" r="D37">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" ht="17" customHeight="0">
@@ -938,10 +938,10 @@
         </is>
       </c>
       <c s="4" r="C38">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c s="5" r="D38">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="1" collapsed="1" r="39" ht="17" customHeight="0">
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c s="4" r="C39">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c s="5" r="D39">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="2" collapsed="1" r="40" ht="17" customHeight="0">
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c s="8" r="C41">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c s="5" r="D41">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" ht="17.05" customHeight="0">
@@ -998,10 +998,10 @@
         </is>
       </c>
       <c s="4" r="C42">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c s="5" r="D42">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="1" collapsed="1" r="43" ht="17" customHeight="0">
@@ -1012,10 +1012,10 @@
         </is>
       </c>
       <c s="4" r="C43">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c s="5" r="D43">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row hidden="1" outlineLevel="2" collapsed="1" r="44" ht="17" customHeight="0">
@@ -1040,10 +1040,10 @@
         </is>
       </c>
       <c s="8" r="C45">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c s="5" r="D45">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" ht="17" customHeight="0">
@@ -1833,10 +1833,10 @@
         </is>
       </c>
       <c s="11" r="C98">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c s="11" r="D98">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
